--- a/files/unemployment.xlsx
+++ b/files/unemployment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tufan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tufan\Documents\GitHub\fall20-tufanbt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313FD319-1F22-4871-B46F-4535EB65D4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41783114-E1FE-4B9E-A160-7789C6B5B486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="0" windowWidth="11670" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,289 +27,289 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-08</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2013-10</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
+    <t>2016-07</t>
+  </si>
+  <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
+    <t>2020-01</t>
+  </si>
+  <si>
+    <t>2020-02</t>
+  </si>
+  <si>
+    <t>2020-03</t>
+  </si>
+  <si>
+    <t>2020-04</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>2020-06</t>
+  </si>
+  <si>
+    <t>2020-07</t>
+  </si>
+  <si>
+    <t>2020-08</t>
+  </si>
+  <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
   </si>
 </sst>
 </file>
@@ -629,26 +629,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -659,7 +657,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>42</v>
@@ -670,7 +668,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>41</v>
@@ -681,7 +679,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>41</v>
@@ -692,7 +690,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -703,7 +701,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -714,7 +712,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>49</v>
@@ -725,7 +723,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>44</v>
@@ -736,7 +734,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -747,7 +745,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>42</v>
@@ -758,7 +756,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -769,7 +767,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>38</v>
@@ -780,7 +778,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>44</v>
@@ -791,7 +789,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>40</v>
@@ -802,7 +800,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>37</v>
@@ -813,7 +811,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>40</v>
@@ -824,7 +822,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>38</v>
@@ -835,7 +833,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>42</v>
@@ -846,7 +844,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>48</v>
@@ -857,7 +855,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>52</v>
@@ -868,7 +866,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>53</v>
@@ -879,7 +877,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>48</v>
@@ -890,7 +888,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>49</v>
@@ -901,7 +899,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>47</v>
@@ -912,7 +910,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>52</v>
@@ -923,7 +921,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>54</v>
@@ -934,7 +932,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>49</v>
@@ -945,7 +943,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>47</v>
@@ -956,7 +954,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>49</v>
@@ -967,7 +965,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>58</v>
@@ -978,7 +976,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>59</v>
@@ -989,7 +987,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>61</v>
@@ -1000,7 +998,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>60</v>
@@ -1011,7 +1009,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>64</v>
@@ -1022,7 +1020,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>57</v>
@@ -1033,7 +1031,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>51</v>
@@ -1044,7 +1042,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>59</v>
@@ -1055,7 +1053,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>60</v>
@@ -1066,7 +1064,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>59</v>
@@ -1077,7 +1075,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>55</v>
@@ -1088,7 +1086,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>57</v>
@@ -1099,7 +1097,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>66</v>
@@ -1110,7 +1108,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>70</v>
@@ -1121,7 +1119,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>77</v>
@@ -1132,7 +1130,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>70</v>
@@ -1143,7 +1141,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>82</v>
@@ -1154,7 +1152,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>73</v>
@@ -1165,7 +1163,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>67</v>
@@ -1176,7 +1174,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>66</v>
@@ -1187,7 +1185,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>73</v>
@@ -1198,7 +1196,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>66</v>
@@ -1209,7 +1207,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>55</v>
@@ -1220,7 +1218,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>64</v>
@@ -1231,7 +1229,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>69</v>
@@ -1242,7 +1240,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>74</v>
@@ -1253,7 +1251,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>66</v>
@@ -1264,7 +1262,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>73</v>
@@ -1275,7 +1273,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>66</v>
@@ -1286,7 +1284,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>60</v>
@@ -1297,7 +1295,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>54</v>
@@ -1308,7 +1306,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -1319,7 +1317,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -1330,7 +1328,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>59</v>
@@ -1341,7 +1339,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>52</v>
@@ -1352,7 +1350,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>53</v>
@@ -1363,7 +1361,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -1374,7 +1372,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>77</v>
@@ -1385,7 +1383,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>60</v>
@@ -1396,7 +1394,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>84</v>
@@ -1407,7 +1405,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>82</v>
@@ -1418,7 +1416,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>79</v>
@@ -1429,7 +1427,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>79</v>
@@ -1440,7 +1438,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>89</v>
@@ -1451,7 +1449,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>92</v>
@@ -1462,7 +1460,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>77</v>
@@ -1473,7 +1471,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>72</v>
@@ -1484,7 +1482,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>79</v>
@@ -1495,7 +1493,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>89</v>
@@ -1506,7 +1504,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>95</v>
@@ -1517,7 +1515,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>77</v>
@@ -1528,7 +1526,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>100</v>
@@ -1539,7 +1537,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>90</v>
@@ -1550,7 +1548,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -1561,7 +1559,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>81</v>
@@ -1572,7 +1570,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>79</v>
@@ -1583,7 +1581,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>73</v>
@@ -1594,7 +1592,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>53</v>
@@ -1605,7 +1603,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>31</v>
@@ -1616,7 +1614,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>47</v>
@@ -1627,7 +1625,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>71</v>
@@ -1638,7 +1636,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>71</v>
@@ -1649,7 +1647,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>84</v>
